--- a/natmiOut/OldD2/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H2">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I2">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J2">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N2">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O2">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P2">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q2">
-        <v>748.5205593853448</v>
+        <v>768.3558149640776</v>
       </c>
       <c r="R2">
-        <v>748.5205593853448</v>
+        <v>3073.42325985631</v>
       </c>
       <c r="S2">
-        <v>0.003398544695642091</v>
+        <v>0.00326917275707737</v>
       </c>
       <c r="T2">
-        <v>0.003398544695642091</v>
+        <v>0.001525651374749568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H3">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I3">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J3">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N3">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O3">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P3">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q3">
-        <v>342.821243980832</v>
+        <v>361.5346059527699</v>
       </c>
       <c r="R3">
-        <v>342.821243980832</v>
+        <v>2169.20763571662</v>
       </c>
       <c r="S3">
-        <v>0.001556528148326624</v>
+        <v>0.001538244471510579</v>
       </c>
       <c r="T3">
-        <v>0.001556528148326624</v>
+        <v>0.001076797541937991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H4">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I4">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J4">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N4">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O4">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P4">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q4">
-        <v>3229.617040914185</v>
+        <v>3345.686285075748</v>
       </c>
       <c r="R4">
-        <v>3229.617040914185</v>
+        <v>20074.11771045449</v>
       </c>
       <c r="S4">
-        <v>0.01466358903002913</v>
+        <v>0.01423510598069514</v>
       </c>
       <c r="T4">
-        <v>0.01466358903002913</v>
+        <v>0.009964818605320044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H5">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I5">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J5">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N5">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O5">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P5">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q5">
-        <v>4083.508430817723</v>
+        <v>4097.388616841254</v>
       </c>
       <c r="R5">
-        <v>4083.508430817723</v>
+        <v>24584.33170104752</v>
       </c>
       <c r="S5">
-        <v>0.01854055408786818</v>
+        <v>0.01743342209489571</v>
       </c>
       <c r="T5">
-        <v>0.01854055408786818</v>
+        <v>0.01220369480081181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H6">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I6">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J6">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N6">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O6">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P6">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q6">
-        <v>447.0116290719667</v>
+        <v>461.2485245836046</v>
       </c>
       <c r="R6">
-        <v>447.0116290719667</v>
+        <v>2767.491147501627</v>
       </c>
       <c r="S6">
-        <v>0.002029588876116322</v>
+        <v>0.001962503675307448</v>
       </c>
       <c r="T6">
-        <v>0.002029588876116322</v>
+        <v>0.001373786269187836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H7">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I7">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J7">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N7">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O7">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P7">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q7">
-        <v>83.48545233628822</v>
+        <v>85.22982283022199</v>
       </c>
       <c r="R7">
-        <v>83.48545233628822</v>
+        <v>340.919291320888</v>
       </c>
       <c r="S7">
-        <v>0.0003790531036766176</v>
+        <v>0.0003626327925950808</v>
       </c>
       <c r="T7">
-        <v>0.0003790531036766176</v>
+        <v>0.0001692327875161192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H8">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I8">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J8">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N8">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O8">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P8">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q8">
-        <v>467.5999158415483</v>
+        <v>506.8188172839806</v>
       </c>
       <c r="R8">
-        <v>467.5999158415483</v>
+        <v>3040.912903703884</v>
       </c>
       <c r="S8">
-        <v>0.002123066886727782</v>
+        <v>0.002156394521874512</v>
       </c>
       <c r="T8">
-        <v>0.002123066886727782</v>
+        <v>0.001509513190918726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H9">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I9">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J9">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N9">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O9">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P9">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q9">
-        <v>214.1600291724338</v>
+        <v>238.47355330392</v>
       </c>
       <c r="R9">
-        <v>214.1600291724338</v>
+        <v>2146.26197973528</v>
       </c>
       <c r="S9">
-        <v>0.0009723613093008392</v>
+        <v>0.00101464871946217</v>
       </c>
       <c r="T9">
-        <v>0.0009723613093008392</v>
+        <v>0.001065407287933699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H10">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I10">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J10">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N10">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O10">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P10">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q10">
-        <v>2017.537978879288</v>
+        <v>2206.863972370146</v>
       </c>
       <c r="R10">
-        <v>2017.537978879288</v>
+        <v>19861.77575133132</v>
       </c>
       <c r="S10">
-        <v>0.009160326874664757</v>
+        <v>0.009389685659352144</v>
       </c>
       <c r="T10">
-        <v>0.009160326874664757</v>
+        <v>0.009859411775715837</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H11">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I11">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J11">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N11">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O11">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P11">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q11">
-        <v>2550.962929003023</v>
+        <v>2702.697906747041</v>
       </c>
       <c r="R11">
-        <v>2550.962929003023</v>
+        <v>24324.28116072337</v>
       </c>
       <c r="S11">
-        <v>0.01158226240073076</v>
+        <v>0.0114993420955115</v>
       </c>
       <c r="T11">
-        <v>0.01158226240073076</v>
+        <v>0.01207460536834345</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H12">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I12">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J12">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N12">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O12">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P12">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q12">
-        <v>279.247640580355</v>
+        <v>304.2463233188036</v>
       </c>
       <c r="R12">
-        <v>279.247640580355</v>
+        <v>2738.216909869232</v>
       </c>
       <c r="S12">
-        <v>0.001267881791308772</v>
+        <v>0.001294496341751884</v>
       </c>
       <c r="T12">
-        <v>0.001267881791308772</v>
+        <v>0.001359254498874268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H13">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I13">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J13">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N13">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O13">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P13">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q13">
-        <v>52.15326419156508</v>
+        <v>56.21884700144533</v>
       </c>
       <c r="R13">
-        <v>52.15326419156508</v>
+        <v>337.313082008672</v>
       </c>
       <c r="S13">
-        <v>0.0002367940294441756</v>
+        <v>0.0002391979333949837</v>
       </c>
       <c r="T13">
-        <v>0.0002367940294441756</v>
+        <v>0.0001674426604396832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H14">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I14">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J14">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N14">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O14">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P14">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q14">
-        <v>7483.321129851567</v>
+        <v>8005.218429578942</v>
       </c>
       <c r="R14">
-        <v>7483.321129851567</v>
+        <v>48031.31057747365</v>
       </c>
       <c r="S14">
-        <v>0.03397689083186638</v>
+        <v>0.0340603161904315</v>
       </c>
       <c r="T14">
-        <v>0.03397689083186638</v>
+        <v>0.023842806153869</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H15">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I15">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J15">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N15">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O15">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P15">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q15">
-        <v>3427.349358246616</v>
+        <v>3766.69693147176</v>
       </c>
       <c r="R15">
-        <v>3427.349358246616</v>
+        <v>33900.27238324584</v>
       </c>
       <c r="S15">
-        <v>0.01556136279161956</v>
+        <v>0.01602640697540646</v>
       </c>
       <c r="T15">
-        <v>0.01556136279161956</v>
+        <v>0.01682814008777362</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H16">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I16">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J16">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N16">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O16">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P16">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q16">
-        <v>32288.03957428748</v>
+        <v>34857.48267569244</v>
       </c>
       <c r="R16">
-        <v>32288.03957428748</v>
+        <v>313717.344081232</v>
       </c>
       <c r="S16">
-        <v>0.146598973471062</v>
+        <v>0.1483103667914556</v>
       </c>
       <c r="T16">
-        <v>0.146598973471062</v>
+        <v>0.1557297048967774</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H17">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I17">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J17">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N17">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O17">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P17">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q17">
-        <v>40824.80372931701</v>
+        <v>42689.19455007713</v>
       </c>
       <c r="R17">
-        <v>40824.80372931701</v>
+        <v>384202.7509506941</v>
       </c>
       <c r="S17">
-        <v>0.1853588634610539</v>
+        <v>0.181632453515319</v>
       </c>
       <c r="T17">
-        <v>0.1853588634610539</v>
+        <v>0.190718754174424</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H18">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I18">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J18">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N18">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O18">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P18">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q18">
-        <v>4468.990901025495</v>
+        <v>4805.579807820411</v>
       </c>
       <c r="R18">
-        <v>4468.990901025495</v>
+        <v>43250.2182703837</v>
       </c>
       <c r="S18">
-        <v>0.02029077909900671</v>
+        <v>0.02044660856822185</v>
       </c>
       <c r="T18">
-        <v>0.02029077909900671</v>
+        <v>0.02146946560348304</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H19">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I19">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J19">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N19">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O19">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P19">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q19">
-        <v>834.6443416549306</v>
+        <v>887.978375620336</v>
       </c>
       <c r="R19">
-        <v>834.6443416549306</v>
+        <v>5327.870253722016</v>
       </c>
       <c r="S19">
-        <v>0.003789576738424302</v>
+        <v>0.00377813853675011</v>
       </c>
       <c r="T19">
-        <v>0.003789576738424302</v>
+        <v>0.002644761846911496</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H20">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I20">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J20">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N20">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O20">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P20">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q20">
-        <v>8997.514053896188</v>
+        <v>9747.166827861671</v>
       </c>
       <c r="R20">
-        <v>8997.514053896188</v>
+        <v>58483.00096717002</v>
       </c>
       <c r="S20">
-        <v>0.04085185540787799</v>
+        <v>0.04147189574380119</v>
       </c>
       <c r="T20">
-        <v>0.04085185540787799</v>
+        <v>0.02903103909912321</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H21">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I21">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J21">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N21">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O21">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P21">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q21">
-        <v>4120.847346163223</v>
+        <v>4586.336238545461</v>
       </c>
       <c r="R21">
-        <v>4120.847346163223</v>
+        <v>41277.02614690914</v>
       </c>
       <c r="S21">
-        <v>0.01871008580092184</v>
+        <v>0.0195137788949388</v>
       </c>
       <c r="T21">
-        <v>0.01871008580092184</v>
+        <v>0.02048997042130474</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H22">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I22">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J22">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N22">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O22">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P22">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q22">
-        <v>38821.27798625825</v>
+        <v>42442.52693766196</v>
       </c>
       <c r="R22">
-        <v>38821.27798625825</v>
+        <v>381982.7424389576</v>
       </c>
       <c r="S22">
-        <v>0.1762621570295751</v>
+        <v>0.1805829410071086</v>
       </c>
       <c r="T22">
-        <v>0.1762621570295751</v>
+        <v>0.1896167390103802</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H23">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I23">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J23">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N23">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O23">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P23">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q23">
-        <v>49085.39122246237</v>
+        <v>51978.4319050156</v>
       </c>
       <c r="R23">
-        <v>49085.39122246237</v>
+        <v>467805.8871451404</v>
       </c>
       <c r="S23">
-        <v>0.2228648149752912</v>
+        <v>0.221155967365748</v>
       </c>
       <c r="T23">
-        <v>0.2228648149752912</v>
+        <v>0.2322194616540685</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H24">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I24">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J24">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N24">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O24">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P24">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q24">
-        <v>5373.257106167865</v>
+        <v>5851.281698742192</v>
       </c>
       <c r="R24">
-        <v>5373.257106167865</v>
+        <v>52661.53528867972</v>
       </c>
       <c r="S24">
-        <v>0.02439646340707513</v>
+        <v>0.02489582345961381</v>
       </c>
       <c r="T24">
-        <v>0.02439646340707513</v>
+        <v>0.02614125582994167</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H25">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I25">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J25">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N25">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O25">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P25">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q25">
-        <v>1003.528254866449</v>
+        <v>1081.203897538156</v>
       </c>
       <c r="R25">
-        <v>1003.528254866449</v>
+        <v>6487.223385228936</v>
       </c>
       <c r="S25">
-        <v>0.004556368672497028</v>
+        <v>0.004600267555524214</v>
       </c>
       <c r="T25">
-        <v>0.004556368672497028</v>
+        <v>0.00322026627612781</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H26">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I26">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J26">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N26">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O26">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P26">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q26">
-        <v>520.753412570354</v>
+        <v>534.9846889453087</v>
       </c>
       <c r="R26">
-        <v>520.753412570354</v>
+        <v>3209.908133671852</v>
       </c>
       <c r="S26">
-        <v>0.00236440232113569</v>
+        <v>0.002276233662180694</v>
       </c>
       <c r="T26">
-        <v>0.00236440232113569</v>
+        <v>0.001593402646788466</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H27">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I27">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J27">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N27">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O27">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P27">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q27">
-        <v>238.5042474334039</v>
+        <v>251.72644618776</v>
       </c>
       <c r="R27">
-        <v>238.5042474334039</v>
+        <v>2265.53801568984</v>
       </c>
       <c r="S27">
-        <v>0.00108289256031726</v>
+        <v>0.001071036652662545</v>
       </c>
       <c r="T27">
-        <v>0.00108289256031726</v>
+        <v>0.001124616070077575</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H28">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I28">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J28">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N28">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O28">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P28">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q28">
-        <v>2246.87762315104</v>
+        <v>2329.507894221528</v>
       </c>
       <c r="R28">
-        <v>2246.87762315104</v>
+        <v>20965.57104799375</v>
       </c>
       <c r="S28">
-        <v>0.01020160893668351</v>
+        <v>0.00991150661824787</v>
       </c>
       <c r="T28">
-        <v>0.01020160893668351</v>
+        <v>0.01040733722216862</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H29">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I29">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J29">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N29">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O29">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P29">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q29">
-        <v>2840.938600743764</v>
+        <v>2852.897228052279</v>
       </c>
       <c r="R29">
-        <v>2840.938600743764</v>
+        <v>25676.07505247051</v>
       </c>
       <c r="S29">
-        <v>0.01289885319934422</v>
+        <v>0.01213840477946548</v>
       </c>
       <c r="T29">
-        <v>0.01289885319934422</v>
+        <v>0.01274563764569353</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H30">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I30">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J30">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N30">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O30">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P30">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q30">
-        <v>310.9905644929939</v>
+        <v>321.1544620930329</v>
       </c>
       <c r="R30">
-        <v>310.9905644929939</v>
+        <v>2890.390158837296</v>
       </c>
       <c r="S30">
-        <v>0.001412005749341475</v>
+        <v>0.001366436484036326</v>
       </c>
       <c r="T30">
-        <v>0.001412005749341475</v>
+        <v>0.001434793501106941</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H31">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I31">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J31">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N31">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O31">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P31">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q31">
-        <v>58.08168347413455</v>
+        <v>59.34314463126934</v>
       </c>
       <c r="R31">
-        <v>58.08168347413455</v>
+        <v>356.058867787616</v>
       </c>
       <c r="S31">
-        <v>0.0002637111229744635</v>
+        <v>0.0002524910828675358</v>
       </c>
       <c r="T31">
-        <v>0.0002637111229744635</v>
+        <v>0.0001767480933157732</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H32">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I32">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J32">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N32">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O32">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P32">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q32">
-        <v>233.36518684448</v>
+        <v>239.888236961776</v>
       </c>
       <c r="R32">
-        <v>233.36518684448</v>
+        <v>959.552947847104</v>
       </c>
       <c r="S32">
-        <v>0.00105955943087134</v>
+        <v>0.001020667864738453</v>
       </c>
       <c r="T32">
-        <v>0.00105955943087134</v>
+        <v>0.0004763233535547517</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H33">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I33">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J33">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N33">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O33">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P33">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q33">
-        <v>106.8808901141457</v>
+        <v>112.87465720128</v>
       </c>
       <c r="R33">
-        <v>106.8808901141457</v>
+        <v>677.24794320768</v>
       </c>
       <c r="S33">
-        <v>0.0004852765600202255</v>
+        <v>0.0004802550421306091</v>
       </c>
       <c r="T33">
-        <v>0.0004852765600202255</v>
+        <v>0.0003361867755401256</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H34">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I34">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J34">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N34">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O34">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P34">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q34">
-        <v>1006.893096975115</v>
+        <v>1044.556140167349</v>
       </c>
       <c r="R34">
-        <v>1006.893096975115</v>
+        <v>6267.336841004096</v>
       </c>
       <c r="S34">
-        <v>0.004571646230550301</v>
+        <v>0.004444339992185314</v>
       </c>
       <c r="T34">
-        <v>0.004571646230550301</v>
+        <v>0.003111114304491712</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H35">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I35">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J35">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N35">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O35">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P35">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q35">
-        <v>1273.109597311944</v>
+        <v>1279.244996001301</v>
       </c>
       <c r="R35">
-        <v>1273.109597311944</v>
+        <v>7675.469976007808</v>
       </c>
       <c r="S35">
-        <v>0.005780362095155374</v>
+        <v>0.005442885716626646</v>
       </c>
       <c r="T35">
-        <v>0.005780362095155374</v>
+        <v>0.003810113456775498</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H36">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I36">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J36">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N36">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O36">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P36">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q36">
-        <v>139.3641778199062</v>
+        <v>144.0063226029653</v>
       </c>
       <c r="R36">
-        <v>139.3641778199062</v>
+        <v>864.037935617792</v>
       </c>
       <c r="S36">
-        <v>0.0006327620281816894</v>
+        <v>0.0006127129352466988</v>
       </c>
       <c r="T36">
-        <v>0.0006327620281816894</v>
+        <v>0.0004289095750426165</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H37">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I37">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J37">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N37">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O37">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P37">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q37">
-        <v>26.02814036163837</v>
+        <v>26.609588340608</v>
       </c>
       <c r="R37">
-        <v>26.02814036163837</v>
+        <v>106.438353362432</v>
       </c>
       <c r="S37">
-        <v>0.0001181768453175313</v>
+        <v>0.0001132175218641722</v>
       </c>
       <c r="T37">
-        <v>0.0001181768453175313</v>
+        <v>5.28361395107899E-05</v>
       </c>
     </row>
   </sheetData>
